--- a/RUDN/Importance/Varible_f_class_in_Western Africa.xlsx
+++ b/RUDN/Importance/Varible_f_class_in_Western Africa.xlsx
@@ -1550,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>827.9913923115545</v>
+        <v>827.9913923115123</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>687.2588853608025</v>
+        <v>687.2588853608142</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>424.8389550921779</v>
+        <v>424.8389550921695</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1605,7 +1605,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>421.719660084626</v>
+        <v>421.7196600846298</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>404.3038433141656</v>
+        <v>404.3038433141714</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>392.3665160133405</v>
+        <v>392.3665160133691</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1671,7 +1671,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>279.9030088533121</v>
+        <v>279.9030088533034</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1693,7 +1693,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>198.6955543811759</v>
+        <v>198.6955543811764</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>179.8766235247019</v>
+        <v>179.8766235247024</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>179.8766235247019</v>
+        <v>179.8766235247024</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1726,7 +1726,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>179.3360052980223</v>
+        <v>179.3360052980204</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1737,7 +1737,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>168.686984382485</v>
+        <v>168.6869843824851</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1748,7 +1748,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>167.6184289858808</v>
+        <v>167.6184289858805</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1759,7 +1759,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>144.1513314402035</v>
+        <v>144.1513314402036</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>132.6733147892891</v>
+        <v>132.6733147892882</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1803,7 +1803,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>119.720895861784</v>
+        <v>119.7208958617839</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1814,7 +1814,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>113.015052304639</v>
+        <v>113.0150523046424</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>107.1664774256817</v>
+        <v>107.1664774256814</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>104.2638528641647</v>
+        <v>104.2638528641648</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>102.9681947224719</v>
+        <v>102.9681947224718</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1924,7 +1924,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>99.52645225428985</v>
+        <v>99.52645225429394</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1935,7 +1935,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>99.35120381636138</v>
+        <v>99.35120381636899</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>98.24768683216574</v>
+        <v>98.2476868321654</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1957,7 +1957,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>98.07273677784374</v>
+        <v>98.07273677784386</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>93.46889783081646</v>
+        <v>93.46889783081775</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1990,7 +1990,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>87.96876124597674</v>
+        <v>87.96876124597871</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>84.45997104809065</v>
+        <v>84.45997104807617</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -2045,7 +2045,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>81.973838346015</v>
+        <v>81.97383834601669</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>79.6386002110999</v>
+        <v>79.6386002110996</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>79.6386002110999</v>
+        <v>79.6386002110996</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>76.47397498839368</v>
+        <v>76.47397498839352</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>76.24902254266901</v>
+        <v>76.24902254266888</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -2100,7 +2100,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>73.23680876120677</v>
+        <v>73.23680876120545</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -2111,7 +2111,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>71.54436120470267</v>
+        <v>71.54436120469941</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -2122,7 +2122,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>68.1972115929577</v>
+        <v>68.19721159295298</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -2133,7 +2133,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>67.72863755024396</v>
+        <v>67.72863755024389</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>67.24498460196325</v>
+        <v>67.24498460196369</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -2155,7 +2155,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>65.93810851201303</v>
+        <v>65.93810851201275</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>64.79607728938784</v>
+        <v>64.79607728938774</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -2188,7 +2188,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>63.55510209271002</v>
+        <v>63.55510209270995</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -2199,7 +2199,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>62.25468658019055</v>
+        <v>62.25468658018912</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -2232,7 +2232,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>57.11100022829091</v>
+        <v>57.11100022829106</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -2276,7 +2276,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>55.61735152274063</v>
+        <v>55.61735152274066</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>54.24689085976455</v>
+        <v>54.24689085976457</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -2342,7 +2342,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>53.62974780365943</v>
+        <v>53.62974780365964</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -2364,7 +2364,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>52.54764560926039</v>
+        <v>52.54764560926034</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>50.71741121860344</v>
+        <v>50.71741121861942</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2419,7 +2419,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>49.0511119066506</v>
+        <v>49.05111190665075</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -2441,7 +2441,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>48.62155997235622</v>
+        <v>48.62155997235627</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -2452,7 +2452,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>48.37754865129141</v>
+        <v>48.37754865129146</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>48.37754865129141</v>
+        <v>48.37754865129146</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>47.797087595553</v>
+        <v>47.7970875955502</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -2507,7 +2507,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>47.66462907907511</v>
+        <v>47.66462907907483</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -2551,7 +2551,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>46.54363342038736</v>
+        <v>46.54363342038737</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -2584,7 +2584,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>45.62775853616503</v>
+        <v>45.62775853616504</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -2683,7 +2683,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>44.85679810958646</v>
+        <v>44.8567981095865</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -2815,7 +2815,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>44.49049537103869</v>
+        <v>44.49049537103868</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2826,7 +2826,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>44.4592218924903</v>
+        <v>44.45922189249032</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>44.42123966891644</v>
+        <v>44.42123966891642</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -2859,7 +2859,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>44.42001702688352</v>
+        <v>44.42001702688351</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -2903,7 +2903,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>44.31063018109937</v>
+        <v>44.31063018109939</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -2925,7 +2925,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>44.29313940451405</v>
+        <v>44.29313940451403</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -3057,7 +3057,7 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>44.01267791404713</v>
+        <v>44.01267791404716</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>43.97843726541642</v>
+        <v>43.97843726541645</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -3090,7 +3090,7 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>43.97025005358621</v>
+        <v>43.97025005358623</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>43.91873962263314</v>
+        <v>43.91873962263315</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -3200,7 +3200,7 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>43.90036124917572</v>
+        <v>43.9003612491757</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>43.8580532045704</v>
+        <v>43.85805320457038</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -3343,7 +3343,7 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>43.80744467713178</v>
+        <v>43.80744467713176</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -3376,7 +3376,7 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>43.78528957162504</v>
+        <v>43.78528957162502</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>43.72561438490639</v>
+        <v>43.72561438490642</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -3519,7 +3519,7 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>43.56140986540434</v>
+        <v>43.56140986540432</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -3607,7 +3607,7 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>43.46881527594773</v>
+        <v>43.46881527594775</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -3651,7 +3651,7 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>43.42131317204697</v>
+        <v>43.42131317204696</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -3662,7 +3662,7 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>43.31928438099411</v>
+        <v>43.3192843809941</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>42.88463170327973</v>
+        <v>42.88463170327715</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>42.65013867374942</v>
+        <v>42.65013867375658</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -3695,7 +3695,7 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>42.42056444290276</v>
+        <v>42.42056444290279</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>41.47678182148182</v>
+        <v>41.47678182148183</v>
       </c>
       <c r="C203">
         <v>0</v>
@@ -3816,7 +3816,7 @@
         <v>209</v>
       </c>
       <c r="B209">
-        <v>40.07142310640671</v>
+        <v>40.07142310640825</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>39.33590040207309</v>
+        <v>39.33590040207443</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -3871,7 +3871,7 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>38.4422225435894</v>
+        <v>38.44222254358938</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -3904,7 +3904,7 @@
         <v>217</v>
       </c>
       <c r="B217">
-        <v>35.76976381985408</v>
+        <v>35.76976381986136</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -3926,7 +3926,7 @@
         <v>219</v>
       </c>
       <c r="B219">
-        <v>35.55393127002574</v>
+        <v>35.55393127002571</v>
       </c>
       <c r="C219">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>34.38606577054024</v>
+        <v>34.38606577054023</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -3959,7 +3959,7 @@
         <v>222</v>
       </c>
       <c r="B222">
-        <v>34.28259573875896</v>
+        <v>34.28259573875892</v>
       </c>
       <c r="C222">
         <v>0</v>
@@ -3970,7 +3970,7 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>33.92343906312411</v>
+        <v>33.9234390631241</v>
       </c>
       <c r="C223">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>225</v>
       </c>
       <c r="B225">
-        <v>32.45610971347615</v>
+        <v>32.45610971347688</v>
       </c>
       <c r="C225">
         <v>0</v>
@@ -4003,7 +4003,7 @@
         <v>226</v>
       </c>
       <c r="B226">
-        <v>32.40576392401696</v>
+        <v>32.40576392401698</v>
       </c>
       <c r="C226">
         <v>0</v>
@@ -4069,7 +4069,7 @@
         <v>232</v>
       </c>
       <c r="B232">
-        <v>31.79225709442475</v>
+        <v>31.79225709442469</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -4102,7 +4102,7 @@
         <v>235</v>
       </c>
       <c r="B235">
-        <v>28.93393468431322</v>
+        <v>28.93393468431801</v>
       </c>
       <c r="C235">
         <v>0</v>
@@ -4113,7 +4113,7 @@
         <v>236</v>
       </c>
       <c r="B236">
-        <v>28.86585668976657</v>
+        <v>28.86585668976656</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>239</v>
       </c>
       <c r="B239">
-        <v>27.44637054709579</v>
+        <v>27.44637054709513</v>
       </c>
       <c r="C239">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>241</v>
       </c>
       <c r="B241">
-        <v>26.33807439818911</v>
+        <v>26.33807439818903</v>
       </c>
       <c r="C241">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>244</v>
       </c>
       <c r="B244">
-        <v>25.49796688948581</v>
+        <v>25.49796688948583</v>
       </c>
       <c r="C244">
         <v>0</v>
@@ -4212,7 +4212,7 @@
         <v>245</v>
       </c>
       <c r="B245">
-        <v>25.44738455324201</v>
+        <v>25.447384553242</v>
       </c>
       <c r="C245">
         <v>0</v>
@@ -4223,7 +4223,7 @@
         <v>246</v>
       </c>
       <c r="B246">
-        <v>25.373420730852</v>
+        <v>25.37342073085445</v>
       </c>
       <c r="C246">
         <v>0</v>
@@ -4245,7 +4245,7 @@
         <v>248</v>
       </c>
       <c r="B248">
-        <v>23.37578021565812</v>
+        <v>23.37578021565814</v>
       </c>
       <c r="C248">
         <v>0</v>
@@ -4278,7 +4278,7 @@
         <v>251</v>
       </c>
       <c r="B251">
-        <v>22.92947009626826</v>
+        <v>22.92947009626829</v>
       </c>
       <c r="C251">
         <v>0</v>
@@ -4311,7 +4311,7 @@
         <v>254</v>
       </c>
       <c r="B254">
-        <v>21.60249793227724</v>
+        <v>21.60249793227729</v>
       </c>
       <c r="C254">
         <v>0</v>
@@ -4344,7 +4344,7 @@
         <v>257</v>
       </c>
       <c r="B257">
-        <v>21.48217697455363</v>
+        <v>21.48217697455364</v>
       </c>
       <c r="C257">
         <v>0</v>
@@ -4355,7 +4355,7 @@
         <v>258</v>
       </c>
       <c r="B258">
-        <v>19.90358685954675</v>
+        <v>19.90358685954527</v>
       </c>
       <c r="C258">
         <v>0</v>
@@ -4410,7 +4410,7 @@
         <v>263</v>
       </c>
       <c r="B263">
-        <v>18.66173890046653</v>
+        <v>18.66173890046654</v>
       </c>
       <c r="C263">
         <v>0</v>
@@ -4487,7 +4487,7 @@
         <v>270</v>
       </c>
       <c r="B270">
-        <v>17.45988191495871</v>
+        <v>17.45988191495872</v>
       </c>
       <c r="C270">
         <v>0</v>
@@ -4520,7 +4520,7 @@
         <v>273</v>
       </c>
       <c r="B273">
-        <v>17.35041247439018</v>
+        <v>17.35041247439019</v>
       </c>
       <c r="C273">
         <v>0</v>
@@ -4553,7 +4553,7 @@
         <v>276</v>
       </c>
       <c r="B276">
-        <v>16.77369533640695</v>
+        <v>16.77369533640696</v>
       </c>
       <c r="C276">
         <v>0</v>
@@ -4597,7 +4597,7 @@
         <v>280</v>
       </c>
       <c r="B280">
-        <v>16.66412190368656</v>
+        <v>16.66412190368648</v>
       </c>
       <c r="C280">
         <v>0</v>
@@ -4608,7 +4608,7 @@
         <v>281</v>
       </c>
       <c r="B281">
-        <v>16.66412190368656</v>
+        <v>16.66412190368648</v>
       </c>
       <c r="C281">
         <v>0</v>
@@ -4619,7 +4619,7 @@
         <v>282</v>
       </c>
       <c r="B282">
-        <v>16.53021030817828</v>
+        <v>16.53021030817829</v>
       </c>
       <c r="C282">
         <v>0</v>
@@ -4641,7 +4641,7 @@
         <v>284</v>
       </c>
       <c r="B284">
-        <v>16.47435142127263</v>
+        <v>16.47435142127262</v>
       </c>
       <c r="C284">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>285</v>
       </c>
       <c r="B285">
-        <v>16.2150057671412</v>
+        <v>16.21500576714131</v>
       </c>
       <c r="C285">
         <v>0</v>
@@ -4674,7 +4674,7 @@
         <v>287</v>
       </c>
       <c r="B287">
-        <v>15.70365365542646</v>
+        <v>15.70365365542632</v>
       </c>
       <c r="C287">
         <v>0</v>
@@ -4740,7 +4740,7 @@
         <v>293</v>
       </c>
       <c r="B293">
-        <v>14.1944307437732</v>
+        <v>14.1944307437733</v>
       </c>
       <c r="C293">
         <v>0</v>
@@ -4762,7 +4762,7 @@
         <v>295</v>
       </c>
       <c r="B295">
-        <v>14.04327869706754</v>
+        <v>14.04327869706755</v>
       </c>
       <c r="C295">
         <v>0</v>
@@ -4795,7 +4795,7 @@
         <v>298</v>
       </c>
       <c r="B298">
-        <v>13.61673231084155</v>
+        <v>13.61673231084158</v>
       </c>
       <c r="C298">
         <v>0</v>
@@ -4828,7 +4828,7 @@
         <v>301</v>
       </c>
       <c r="B301">
-        <v>13.34848820009247</v>
+        <v>13.34848820008316</v>
       </c>
       <c r="C301">
         <v>0</v>
@@ -4839,7 +4839,7 @@
         <v>302</v>
       </c>
       <c r="B302">
-        <v>12.9975529111989</v>
+        <v>12.99755291119896</v>
       </c>
       <c r="C302">
         <v>0</v>
@@ -4850,7 +4850,7 @@
         <v>303</v>
       </c>
       <c r="B303">
-        <v>12.62309481967006</v>
+        <v>12.6230948196701</v>
       </c>
       <c r="C303">
         <v>0</v>
@@ -4971,7 +4971,7 @@
         <v>314</v>
       </c>
       <c r="B314">
-        <v>12.02394041393958</v>
+        <v>12.0239404139396</v>
       </c>
       <c r="C314">
         <v>0</v>
@@ -4982,7 +4982,7 @@
         <v>315</v>
       </c>
       <c r="B315">
-        <v>12.02394041393958</v>
+        <v>12.0239404139396</v>
       </c>
       <c r="C315">
         <v>0</v>
@@ -5037,7 +5037,7 @@
         <v>320</v>
       </c>
       <c r="B320">
-        <v>10.36470983892396</v>
+        <v>10.36470983892397</v>
       </c>
       <c r="C320">
         <v>0</v>
@@ -5048,7 +5048,7 @@
         <v>321</v>
       </c>
       <c r="B321">
-        <v>10.36470983892396</v>
+        <v>10.36470983892397</v>
       </c>
       <c r="C321">
         <v>0</v>
@@ -5059,7 +5059,7 @@
         <v>322</v>
       </c>
       <c r="B322">
-        <v>9.290240159885828</v>
+        <v>9.290240159886208</v>
       </c>
       <c r="C322">
         <v>1e-05</v>
@@ -5070,7 +5070,7 @@
         <v>323</v>
       </c>
       <c r="B323">
-        <v>9.252107054700289</v>
+        <v>9.252107054700417</v>
       </c>
       <c r="C323">
         <v>1e-05</v>
@@ -5103,7 +5103,7 @@
         <v>326</v>
       </c>
       <c r="B326">
-        <v>8.028882176881165</v>
+        <v>8.028882176881224</v>
       </c>
       <c r="C326">
         <v>5e-05</v>
@@ -5125,7 +5125,7 @@
         <v>328</v>
       </c>
       <c r="B328">
-        <v>7.729349429555929</v>
+        <v>7.729349429555931</v>
       </c>
       <c r="C328">
         <v>6.999999999999999e-05</v>
@@ -5136,7 +5136,7 @@
         <v>329</v>
       </c>
       <c r="B329">
-        <v>7.729090346323217</v>
+        <v>7.729090346323219</v>
       </c>
       <c r="C329">
         <v>6.999999999999999e-05</v>
@@ -5191,7 +5191,7 @@
         <v>334</v>
       </c>
       <c r="B334">
-        <v>6.979377252356111</v>
+        <v>6.979377252356116</v>
       </c>
       <c r="C334">
         <v>0.00018</v>
@@ -5213,7 +5213,7 @@
         <v>336</v>
       </c>
       <c r="B336">
-        <v>6.974369459637606</v>
+        <v>6.97436945963761</v>
       </c>
       <c r="C336">
         <v>0.00018</v>
@@ -5224,7 +5224,7 @@
         <v>337</v>
       </c>
       <c r="B337">
-        <v>6.963733184135075</v>
+        <v>6.963733184135079</v>
       </c>
       <c r="C337">
         <v>0.00019</v>
@@ -5235,7 +5235,7 @@
         <v>338</v>
       </c>
       <c r="B338">
-        <v>6.963733184135075</v>
+        <v>6.963733184135079</v>
       </c>
       <c r="C338">
         <v>0.00019</v>
@@ -5257,7 +5257,7 @@
         <v>340</v>
       </c>
       <c r="B340">
-        <v>6.95845202323158</v>
+        <v>6.958452023231581</v>
       </c>
       <c r="C340">
         <v>0.00019</v>
@@ -5268,7 +5268,7 @@
         <v>341</v>
       </c>
       <c r="B341">
-        <v>6.95845202323158</v>
+        <v>6.958452023231581</v>
       </c>
       <c r="C341">
         <v>0.00019</v>
@@ -5279,7 +5279,7 @@
         <v>342</v>
       </c>
       <c r="B342">
-        <v>6.95045843638837</v>
+        <v>6.950458436388369</v>
       </c>
       <c r="C342">
         <v>0.00019</v>
@@ -5290,7 +5290,7 @@
         <v>343</v>
       </c>
       <c r="B343">
-        <v>6.95045843638837</v>
+        <v>6.950458436388369</v>
       </c>
       <c r="C343">
         <v>0.00019</v>
@@ -5312,7 +5312,7 @@
         <v>345</v>
       </c>
       <c r="B345">
-        <v>6.947650380487381</v>
+        <v>6.947650380487382</v>
       </c>
       <c r="C345">
         <v>0.00019</v>
@@ -5323,7 +5323,7 @@
         <v>346</v>
       </c>
       <c r="B346">
-        <v>6.947650380487381</v>
+        <v>6.947650380487382</v>
       </c>
       <c r="C346">
         <v>0.00019</v>
@@ -5345,7 +5345,7 @@
         <v>348</v>
       </c>
       <c r="B348">
-        <v>6.928359608254467</v>
+        <v>6.928359608254461</v>
       </c>
       <c r="C348">
         <v>0.00019</v>
@@ -5356,7 +5356,7 @@
         <v>349</v>
       </c>
       <c r="B349">
-        <v>6.928359608254467</v>
+        <v>6.928359608254461</v>
       </c>
       <c r="C349">
         <v>0.00019</v>
@@ -5389,7 +5389,7 @@
         <v>352</v>
       </c>
       <c r="B352">
-        <v>6.927083175328408</v>
+        <v>6.927083175328402</v>
       </c>
       <c r="C352">
         <v>0.00019</v>
@@ -5400,7 +5400,7 @@
         <v>353</v>
       </c>
       <c r="B353">
-        <v>6.927083175328408</v>
+        <v>6.927083175328402</v>
       </c>
       <c r="C353">
         <v>0.00019</v>
@@ -5411,7 +5411,7 @@
         <v>354</v>
       </c>
       <c r="B354">
-        <v>6.918934169068052</v>
+        <v>6.918934169068049</v>
       </c>
       <c r="C354">
         <v>0.0002</v>
@@ -5422,7 +5422,7 @@
         <v>355</v>
       </c>
       <c r="B355">
-        <v>6.918934169068052</v>
+        <v>6.918934169068049</v>
       </c>
       <c r="C355">
         <v>0.0002</v>
@@ -5433,7 +5433,7 @@
         <v>356</v>
       </c>
       <c r="B356">
-        <v>6.918168673474648</v>
+        <v>6.918168673474645</v>
       </c>
       <c r="C356">
         <v>0.0002</v>
@@ -5444,7 +5444,7 @@
         <v>357</v>
       </c>
       <c r="B357">
-        <v>6.916964129457222</v>
+        <v>6.916964129457218</v>
       </c>
       <c r="C357">
         <v>0.0002</v>
@@ -5455,7 +5455,7 @@
         <v>358</v>
       </c>
       <c r="B358">
-        <v>6.916964129457222</v>
+        <v>6.916964129457218</v>
       </c>
       <c r="C358">
         <v>0.0002</v>
@@ -5477,7 +5477,7 @@
         <v>360</v>
       </c>
       <c r="B360">
-        <v>6.722615407394011</v>
+        <v>6.722615407394017</v>
       </c>
       <c r="C360">
         <v>0.00025</v>
@@ -5587,7 +5587,7 @@
         <v>370</v>
       </c>
       <c r="B370">
-        <v>5.614448758916404</v>
+        <v>5.614448759021898</v>
       </c>
       <c r="C370">
         <v>0.00106</v>
@@ -5609,7 +5609,7 @@
         <v>372</v>
       </c>
       <c r="B372">
-        <v>5.09426023724942</v>
+        <v>5.094260237249768</v>
       </c>
       <c r="C372">
         <v>0.00209</v>
@@ -5642,7 +5642,7 @@
         <v>375</v>
       </c>
       <c r="B375">
-        <v>4.814346797968759</v>
+        <v>4.81434679796744</v>
       </c>
       <c r="C375">
         <v>0.00301</v>
@@ -5664,7 +5664,7 @@
         <v>377</v>
       </c>
       <c r="B377">
-        <v>4.460951762195799</v>
+        <v>4.460951762195817</v>
       </c>
       <c r="C377">
         <v>0.00477</v>
@@ -5675,7 +5675,7 @@
         <v>378</v>
       </c>
       <c r="B378">
-        <v>4.456839272616847</v>
+        <v>4.456839272616843</v>
       </c>
       <c r="C378">
         <v>0.00479</v>
@@ -5708,7 +5708,7 @@
         <v>381</v>
       </c>
       <c r="B381">
-        <v>3.97021505189592</v>
+        <v>3.970215051895924</v>
       </c>
       <c r="C381">
         <v>0.009050000000000001</v>
@@ -5719,7 +5719,7 @@
         <v>382</v>
       </c>
       <c r="B382">
-        <v>3.908318886199085</v>
+        <v>3.90831888619909</v>
       </c>
       <c r="C382">
         <v>0.009809999999999999</v>
